--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.169777</v>
+        <v>0.04069533333333333</v>
       </c>
       <c r="N2">
-        <v>0.509331</v>
+        <v>0.122086</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1933524121143397</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1933524121143397</v>
       </c>
       <c r="Q2">
-        <v>27.571665446769</v>
+        <v>8.19765747440089</v>
       </c>
       <c r="R2">
-        <v>248.144989020921</v>
+        <v>73.778917269608</v>
       </c>
       <c r="S2">
-        <v>0.3910371682630009</v>
+        <v>0.09345689290224771</v>
       </c>
       <c r="T2">
-        <v>0.3910371682630009</v>
+        <v>0.09345689290224771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.41736466666667</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>196.252094</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,27 +623,27 @@
         <v>0.509331</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8066475878856604</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8066475878856603</v>
       </c>
       <c r="Q3">
-        <v>11.10636392101267</v>
+        <v>34.19983519071867</v>
       </c>
       <c r="R3">
-        <v>99.95727528911399</v>
+        <v>307.798516716468</v>
       </c>
       <c r="S3">
-        <v>0.1575168212364948</v>
+        <v>0.3898931304063916</v>
       </c>
       <c r="T3">
-        <v>0.1575168212364948</v>
+        <v>0.3898931304063916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.180387</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H4">
-        <v>183.541161</v>
+        <v>196.252094</v>
       </c>
       <c r="I4">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J4">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.169777</v>
+        <v>0.04069533333333333</v>
       </c>
       <c r="N4">
-        <v>0.509331</v>
+        <v>0.122086</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1933524121143397</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1933524121143397</v>
       </c>
       <c r="Q4">
-        <v>10.387022563699</v>
+        <v>2.662181460898223</v>
       </c>
       <c r="R4">
-        <v>93.48320307329099</v>
+        <v>23.959633148084</v>
       </c>
       <c r="S4">
-        <v>0.1473147096548978</v>
+        <v>0.03035003700196653</v>
       </c>
       <c r="T4">
-        <v>0.1473147096548978</v>
+        <v>0.03035003700196653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.3069433333333</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H5">
-        <v>378.92083</v>
+        <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.3041313008456065</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J5">
-        <v>0.3041313008456065</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,22 +747,270 @@
         <v>0.509331</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8066475878856604</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8066475878856603</v>
       </c>
       <c r="Q5">
-        <v>21.44401391830333</v>
+        <v>11.10636392101267</v>
       </c>
       <c r="R5">
-        <v>192.99612526473</v>
+        <v>99.95727528911399</v>
       </c>
       <c r="S5">
-        <v>0.3041313008456065</v>
+        <v>0.1266174229334126</v>
       </c>
       <c r="T5">
-        <v>0.3041313008456065</v>
+        <v>0.1266174229334126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H6">
+        <v>181.304524</v>
+      </c>
+      <c r="I6">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J6">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.04069533333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.122086</v>
+      </c>
+      <c r="O6">
+        <v>0.1933524121143397</v>
+      </c>
+      <c r="P6">
+        <v>0.1933524121143397</v>
+      </c>
+      <c r="Q6">
+        <v>2.459416013007111</v>
+      </c>
+      <c r="R6">
+        <v>22.134744117064</v>
+      </c>
+      <c r="S6">
+        <v>0.02803842190862905</v>
+      </c>
+      <c r="T6">
+        <v>0.02803842190862905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H7">
+        <v>181.304524</v>
+      </c>
+      <c r="I7">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J7">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.169777</v>
+      </c>
+      <c r="N7">
+        <v>0.509331</v>
+      </c>
+      <c r="O7">
+        <v>0.8066475878856604</v>
+      </c>
+      <c r="P7">
+        <v>0.8066475878856603</v>
+      </c>
+      <c r="Q7">
+        <v>10.26044605704933</v>
+      </c>
+      <c r="R7">
+        <v>92.34401451344401</v>
+      </c>
+      <c r="S7">
+        <v>0.1169735880374813</v>
+      </c>
+      <c r="T7">
+        <v>0.1169735880374813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H8">
+        <v>268.396625</v>
+      </c>
+      <c r="I8">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J8">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04069533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.122086</v>
+      </c>
+      <c r="O8">
+        <v>0.1933524121143397</v>
+      </c>
+      <c r="P8">
+        <v>0.1933524121143397</v>
+      </c>
+      <c r="Q8">
+        <v>3.640830039972223</v>
+      </c>
+      <c r="R8">
+        <v>32.76747035975001</v>
+      </c>
+      <c r="S8">
+        <v>0.04150706030149638</v>
+      </c>
+      <c r="T8">
+        <v>0.04150706030149638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H9">
+        <v>268.396625</v>
+      </c>
+      <c r="I9">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J9">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.169777</v>
+      </c>
+      <c r="N9">
+        <v>0.509331</v>
+      </c>
+      <c r="O9">
+        <v>0.8066475878856604</v>
+      </c>
+      <c r="P9">
+        <v>0.8066475878856603</v>
+      </c>
+      <c r="Q9">
+        <v>15.18919126754167</v>
+      </c>
+      <c r="R9">
+        <v>136.702721407875</v>
+      </c>
+      <c r="S9">
+        <v>0.1731634465083748</v>
+      </c>
+      <c r="T9">
+        <v>0.1731634465083748</v>
       </c>
     </row>
   </sheetData>
